--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuAnh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Công việc</t>
   </si>
@@ -129,6 +124,9 @@
   </si>
   <si>
     <t>Stt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In progress</t>
   </si>
 </sst>
 </file>
@@ -498,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,7 +507,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +701,9 @@
       <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -724,7 +724,9 @@
       <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Calculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Công việc</t>
   </si>
@@ -126,7 +131,7 @@
     <t>Stt</t>
   </si>
   <si>
-    <t xml:space="preserve"> In progress</t>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -228,8 +233,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -725,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -742,12 +775,14 @@
         <v>42647</v>
       </c>
       <c r="E16" s="5">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -760,15 +795,17 @@
         <v>19</v>
       </c>
       <c r="D17" s="5">
-        <v>42653</v>
+        <v>42654</v>
       </c>
       <c r="E17" s="5">
-        <v>42653</v>
+        <v>42654</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -789,7 +826,9 @@
       <c r="F18" s="3">
         <v>16</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -810,7 +849,9 @@
       <c r="F19" s="3">
         <v>16</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -831,7 +872,9 @@
       <c r="F20" s="3">
         <v>16</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -852,7 +895,9 @@
       <c r="F21" s="3">
         <v>16</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -873,7 +918,9 @@
       <c r="F22" s="3">
         <v>16</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Công việc</t>
   </si>
@@ -540,7 +540,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,9 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Calculator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -529,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -804,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -524,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -524,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">

--- a/Project Plan Nhom2.xlsx
+++ b/Project Plan Nhom2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Calculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -126,7 +131,7 @@
     <t>Stt</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
@@ -524,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,7 +540,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
